--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_178__Reeval_Halton_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_178__Reeval_Halton_Modell_1.3.xlsx
@@ -5987,7 +5987,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>12.40443801879883</c:v>
+                  <c:v>12.40444850921631</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>77.49098968505859</c:v>
@@ -5999,7 +5999,7 @@
                   <c:v>78.60895538330078</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.66194152832031</c:v>
+                  <c:v>32.66194534301758</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>48.03199768066406</c:v>
@@ -6008,19 +6008,19 @@
                   <c:v>44.95420074462891</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74.39733123779297</c:v>
+                  <c:v>74.39732360839844</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>64.06273651123047</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41.70742034912109</c:v>
+                  <c:v>41.70742797851562</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31.1461181640625</c:v>
+                  <c:v>31.14611625671387</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>83.5858154296875</c:v>
+                  <c:v>83.58580780029297</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>77.92720031738281</c:v>
@@ -6035,40 +6035,40 @@
                   <c:v>103.9886169433594</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>75.08898162841797</c:v>
+                  <c:v>75.08897399902344</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>78.82176208496094</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>77.60445404052734</c:v>
+                  <c:v>77.60444641113281</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>75.89273834228516</c:v>
+                  <c:v>75.89274597167969</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>69.7064208984375</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>83.01373291015625</c:v>
+                  <c:v>83.01371765136719</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>39.88365936279297</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>75.12726593017578</c:v>
+                  <c:v>75.12725830078125</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>95.67193603515625</c:v>
+                  <c:v>95.67192840576172</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>53.10202789306641</c:v>
+                  <c:v>53.10202026367188</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>54.79193115234375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>88.80760955810547</c:v>
+                  <c:v>88.8076171875</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>52.38273620605469</c:v>
@@ -6077,7 +6077,7 @@
                   <c:v>69.86901092529297</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>88.91781616210938</c:v>
+                  <c:v>88.91780853271484</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>75.35134887695312</c:v>
@@ -6089,19 +6089,19 @@
                   <c:v>75.19065093994141</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>64.90039825439453</c:v>
+                  <c:v>64.900390625</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>78.60066223144531</c:v>
+                  <c:v>78.60065460205078</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>84.08786010742188</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>70.34610748291016</c:v>
+                  <c:v>70.34611511230469</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>69.61502838134766</c:v>
+                  <c:v>69.61503601074219</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>72.64037322998047</c:v>
@@ -6110,7 +6110,7 @@
                   <c:v>85.07564544677734</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>39.12470626831055</c:v>
+                  <c:v>39.12470245361328</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>52.37631225585938</c:v>
@@ -6119,19 +6119,19 @@
                   <c:v>83.46741485595703</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>74.00989532470703</c:v>
+                  <c:v>74.00990295410156</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>39.23988342285156</c:v>
+                  <c:v>39.2398796081543</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>58.63024139404297</c:v>
+                  <c:v>58.63023376464844</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>82.85137939453125</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>86.29422760009766</c:v>
+                  <c:v>86.29421997070312</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>38.16478729248047</c:v>
@@ -6140,7 +6140,7 @@
                   <c:v>77.126220703125</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>79.02617645263672</c:v>
+                  <c:v>79.02618408203125</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>43.31267547607422</c:v>
@@ -6155,10 +6155,10 @@
                   <c:v>80.75000762939453</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>77.50031280517578</c:v>
+                  <c:v>77.50032043457031</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>68.90129089355469</c:v>
+                  <c:v>68.90128326416016</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>82.63852691650391</c:v>
@@ -6182,7 +6182,7 @@
                   <c:v>76.93387603759766</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>75.96908569335938</c:v>
+                  <c:v>75.96909332275391</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>43.36003875732422</c:v>
@@ -6197,16 +6197,16 @@
                   <c:v>80.23148345947266</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>48.36688232421875</c:v>
+                  <c:v>48.36688995361328</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>47.32787322998047</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>26.2658519744873</c:v>
+                  <c:v>26.26585006713867</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>33.64005661010742</c:v>
+                  <c:v>33.64005279541016</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>76.3759765625</c:v>
@@ -6215,22 +6215,22 @@
                   <c:v>64.85474395751953</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>92.74684906005859</c:v>
+                  <c:v>92.74685668945312</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>38.0264892578125</c:v>
+                  <c:v>38.02649307250977</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>78.64460754394531</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>68.91512298583984</c:v>
+                  <c:v>68.91511535644531</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>53.03606414794922</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>16.52123641967773</c:v>
+                  <c:v>16.52122688293457</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>75.44345092773438</c:v>
@@ -6239,7 +6239,7 @@
                   <c:v>57.83265686035156</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>86.44473266601562</c:v>
+                  <c:v>86.44472503662109</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>44.21614837646484</c:v>
@@ -6248,7 +6248,7 @@
                   <c:v>67.81214904785156</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>78.00482940673828</c:v>
+                  <c:v>78.00482177734375</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>53.48667144775391</c:v>
@@ -6260,7 +6260,7 @@
                   <c:v>79.05105590820312</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>78.40396881103516</c:v>
+                  <c:v>78.40397644042969</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>40.86888885498047</c:v>
@@ -6281,10 +6281,10 @@
                   <c:v>78.23155212402344</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>77.18962860107422</c:v>
+                  <c:v>77.18962097167969</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>69.311767578125</c:v>
+                  <c:v>69.31175994873047</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6979,7 +6979,7 @@
         <v>7.10687</v>
       </c>
       <c r="F2">
-        <v>12.40443801879883</v>
+        <v>12.40444850921631</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7107,7 +7107,7 @@
         <v>43.4016</v>
       </c>
       <c r="F6">
-        <v>32.66194152832031</v>
+        <v>32.66194534301758</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7191,7 +7191,7 @@
         <v>40.1812</v>
       </c>
       <c r="F9">
-        <v>74.39733123779297</v>
+        <v>74.39732360839844</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7231,7 +7231,7 @@
         <v>40.3697</v>
       </c>
       <c r="F11">
-        <v>41.70742034912109</v>
+        <v>41.70742797851562</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7251,7 +7251,7 @@
         <v>32.0985</v>
       </c>
       <c r="F12">
-        <v>31.1461181640625</v>
+        <v>31.14611625671387</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7271,7 +7271,7 @@
         <v>67.0018</v>
       </c>
       <c r="F13">
-        <v>83.5858154296875</v>
+        <v>83.58580780029297</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7371,7 +7371,7 @@
         <v>76.8933</v>
       </c>
       <c r="F18">
-        <v>75.08898162841797</v>
+        <v>75.08897399902344</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>82.3721</v>
       </c>
       <c r="F20">
-        <v>77.60445404052734</v>
+        <v>77.60444641113281</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>77.6349</v>
       </c>
       <c r="F21">
-        <v>75.89273834228516</v>
+        <v>75.89274597167969</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>80.0192</v>
       </c>
       <c r="F23">
-        <v>83.01373291015625</v>
+        <v>83.01371765136719</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>79.1164</v>
       </c>
       <c r="F25">
-        <v>75.12726593017578</v>
+        <v>75.12725830078125</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>83.5823</v>
       </c>
       <c r="F26">
-        <v>95.67193603515625</v>
+        <v>95.67192840576172</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>68.3349</v>
       </c>
       <c r="F27">
-        <v>53.10202789306641</v>
+        <v>53.10202026367188</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>87.8205</v>
       </c>
       <c r="F29">
-        <v>88.80760955810547</v>
+        <v>88.8076171875</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>95.22920000000001</v>
       </c>
       <c r="F32">
-        <v>88.91781616210938</v>
+        <v>88.91780853271484</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>69.5368</v>
       </c>
       <c r="F36">
-        <v>64.90039825439453</v>
+        <v>64.900390625</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>79.1952</v>
       </c>
       <c r="F37">
-        <v>78.60066223144531</v>
+        <v>78.60065460205078</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>61.6479</v>
       </c>
       <c r="F39">
-        <v>70.34610748291016</v>
+        <v>70.34611511230469</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>73.5089</v>
       </c>
       <c r="F40">
-        <v>69.61502838134766</v>
+        <v>69.61503601074219</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>30.7279</v>
       </c>
       <c r="F43">
-        <v>39.12470626831055</v>
+        <v>39.12470245361328</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>59.3867</v>
       </c>
       <c r="F46">
-        <v>74.00989532470703</v>
+        <v>74.00990295410156</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>30.2573</v>
       </c>
       <c r="F47">
-        <v>39.23988342285156</v>
+        <v>39.2398796081543</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>56.8273</v>
       </c>
       <c r="F48">
-        <v>58.63024139404297</v>
+        <v>58.63023376464844</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>88.188</v>
       </c>
       <c r="F50">
-        <v>86.29422760009766</v>
+        <v>86.29421997070312</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>78.4419</v>
       </c>
       <c r="F53">
-        <v>79.02617645263672</v>
+        <v>79.02618408203125</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>78.777</v>
       </c>
       <c r="F58">
-        <v>77.50031280517578</v>
+        <v>77.50032043457031</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>67.5008</v>
       </c>
       <c r="F59">
-        <v>68.90129089355469</v>
+        <v>68.90128326416016</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>78.45269999999999</v>
       </c>
       <c r="F67">
-        <v>75.96908569335938</v>
+        <v>75.96909332275391</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>50.6358</v>
       </c>
       <c r="F72">
-        <v>48.36688232421875</v>
+        <v>48.36688995361328</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>27.7657</v>
       </c>
       <c r="F74">
-        <v>26.2658519744873</v>
+        <v>26.26585006713867</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>38.5218</v>
       </c>
       <c r="F75">
-        <v>33.64005661010742</v>
+        <v>33.64005279541016</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>95.4156</v>
       </c>
       <c r="F78">
-        <v>92.74684906005859</v>
+        <v>92.74685668945312</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>40.3913</v>
       </c>
       <c r="F79">
-        <v>38.0264892578125</v>
+        <v>38.02649307250977</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>80.995</v>
       </c>
       <c r="F81">
-        <v>68.91512298583984</v>
+        <v>68.91511535644531</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>11.5216</v>
       </c>
       <c r="F83">
-        <v>16.52123641967773</v>
+        <v>16.52122688293457</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>89.0386</v>
       </c>
       <c r="F86">
-        <v>86.44473266601562</v>
+        <v>86.44472503662109</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>81.2565</v>
       </c>
       <c r="F89">
-        <v>78.00482940673828</v>
+        <v>78.00482177734375</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>80.4624</v>
       </c>
       <c r="F93">
-        <v>78.40396881103516</v>
+        <v>78.40397644042969</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>79.904</v>
       </c>
       <c r="F100">
-        <v>77.18962860107422</v>
+        <v>77.18962097167969</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>67.63</v>
       </c>
       <c r="F101">
-        <v>69.311767578125</v>
+        <v>69.31175994873047</v>
       </c>
     </row>
     <row r="102" spans="1:6">
